--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9403397-5248-4781-8E01-D063031E789A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C1B0A-B34B-4CB8-805A-AA06C2085BA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>Cash</t>
   </si>
@@ -52,24 +52,6 @@
   </si>
   <si>
     <t>Fees Earned</t>
-  </si>
-  <si>
-    <t>6/1</t>
-  </si>
-  <si>
-    <t>6/2</t>
-  </si>
-  <si>
-    <t>6/3</t>
-  </si>
-  <si>
-    <t>6/4</t>
-  </si>
-  <si>
-    <t>6/5</t>
-  </si>
-  <si>
-    <t>6/6</t>
   </si>
   <si>
     <t>Rent Expense</t>
@@ -658,9 +640,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -680,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -698,15 +680,9 @@
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>5000</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
@@ -729,150 +705,80 @@
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="13"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="12">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="12"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="6">
-        <v>5000</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6">
-        <v>5000</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1300</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="12"/>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="4"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6">
-        <v>1300</v>
-      </c>
-      <c r="J4" s="6">
-        <v>3700</v>
-      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="28" t="s">
-        <v>0</v>
-      </c>
+      <c r="B5" s="28"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="12">
-        <v>1300</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5" s="12"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="6">
-        <v>2400</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
-        <v>6100</v>
-      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2400</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="12"/>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="4"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6">
-        <v>800</v>
-      </c>
-      <c r="J6" s="6">
-        <v>5300</v>
-      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="16">
-        <v>2400</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="D7" s="16"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="6">
-        <v>1500</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6800</v>
-      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="15">
-        <v>800</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="16"/>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="4"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6">
-        <v>900</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5900</v>
-      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="13" t="s">
-        <v>0</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="16">
-        <v>800</v>
-      </c>
+      <c r="D9" s="16"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -881,15 +787,9 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1500</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="F10" s="29" t="s">
         <v>5</v>
@@ -902,13 +802,9 @@
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="16">
-        <v>1500</v>
-      </c>
+      <c r="D11" s="16"/>
       <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
@@ -929,38 +825,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="15">
-        <v>900</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6">
-        <v>5000</v>
-      </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6">
-        <v>5000</v>
-      </c>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="16">
-        <v>900</v>
-      </c>
+      <c r="D13" s="16"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1011,36 +891,24 @@
       <c r="B16" s="27"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
-      <c r="F16" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6">
-        <v>2400</v>
-      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6">
-        <v>2400</v>
-      </c>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6">
-        <v>1500</v>
-      </c>
+      <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6">
-        <v>3900</v>
-      </c>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
@@ -1060,7 +928,7 @@
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="F19" s="29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -1093,17 +961,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="6">
-        <v>1300</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
-        <v>1300</v>
-      </c>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,7 +978,7 @@
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -1145,43 +1007,23 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="6">
-        <v>800</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
-        <v>800</v>
-      </c>
+      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="6">
-        <v>900</v>
-      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="6">
-        <v>1700</v>
-      </c>
+      <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="2"/>
-    </row>
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F23:K23"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C1B0A-B34B-4CB8-805A-AA06C2085BA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F82BCB-5BA7-43B1-A29C-5014FF3C09E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>Cash</t>
   </si>
@@ -61,13 +61,19 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>JOURNAL</t>
+  </si>
+  <si>
+    <t>LEDGER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +109,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +137,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC689"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,11 +241,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -317,6 +346,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -327,6 +362,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDC689"/>
       <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFFEF1E6"/>
@@ -640,84 +676,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="F1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="F4" s="7"/>
@@ -728,8 +770,8 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="F5" s="7"/>
@@ -740,8 +782,8 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="F6" s="7"/>
@@ -752,155 +794,155 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
       <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="F8" s="7"/>
       <c r="G8" s="4"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="F10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
-      <c r="F11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="17"/>
+      <c r="F11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="F14" s="29" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="F15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="F15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="F17" s="7"/>
@@ -912,109 +954,113 @@
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="F20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="F21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
+    <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
       <c r="H26" s="6"/>
@@ -1022,15 +1068,25 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="F10:K10"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F82BCB-5BA7-43B1-A29C-5014FF3C09E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A93E4F-CEB5-4AB5-8284-99BC7E4EC740}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -263,47 +263,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,26 +297,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -696,143 +713,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="5" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -841,60 +859,60 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="F11" s="29" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="F11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="F12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -903,72 +921,72 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="F15" s="29" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="F16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -977,50 +995,50 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="F20" s="29" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="F20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="5" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
@@ -1031,54 +1049,55 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:K1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A93E4F-CEB5-4AB5-8284-99BC7E4EC740}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7312CF9-8D0E-461F-9D6D-2E8E8D0E2FFE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Cash</t>
   </si>
@@ -68,12 +68,47 @@
   <si>
     <t>LEDGER</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Instructions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t xml:space="preserve">: 1. Record the following transactions in the journal.
+On 6/1, an individual invested $5,000 in the a corporation.
+On 6/2, the company paid rent of $1,300 for the month for its office space.
+On 6/3, a customer paid $2,400 cash for services the company provided.
+On 6/4, the company paid $800 for employee wages.
+On 6/5, a customer paid $1,500 cash for services the company provided.
+On 6/6, the company paid $900 for employee wages.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+      </rPr>
+      <t>Post the transactions from the journal to the ledger accounts.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,40 +117,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="5">
@@ -254,122 +290,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,13 +736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
@@ -712,400 +755,544 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="F1" s="16" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="4" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K13" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="F11" s="18" t="s">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="F12" s="4" t="s">
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K22" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="F15" s="18" t="s">
+    <row r="23" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="F16" s="4" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K26" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="F20" s="18" t="s">
+    <row r="27" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="37"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="4" t="s">
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K31" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="22"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="18" t="s">
+    <row r="32" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="4" t="s">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
+    </row>
+    <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K35" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="22"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-    </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="22"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F15:K15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:K11"/>
-    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7312CF9-8D0E-461F-9D6D-2E8E8D0E2FFE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B0EDA-C527-4958-A1DF-A6D9050333B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>Cash</t>
   </si>
@@ -68,47 +69,12 @@
   <si>
     <t>LEDGER</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t>Instructions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t xml:space="preserve">: 1. Record the following transactions in the journal.
-On 6/1, an individual invested $5,000 in the a corporation.
-On 6/2, the company paid rent of $1,300 for the month for its office space.
-On 6/3, a customer paid $2,400 cash for services the company provided.
-On 6/4, the company paid $800 for employee wages.
-On 6/5, a customer paid $1,500 cash for services the company provided.
-On 6/6, the company paid $900 for employee wages.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Open Sans"/>
-      </rPr>
-      <t>Post the transactions from the journal to the ledger accounts.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Open Sans"/>
@@ -290,78 +250,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -369,7 +314,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -377,42 +322,51 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,544 +709,451 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="1" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K12" s="8" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="13" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="24"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="13" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K21" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+    <row r="22" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="24"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-    </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="13" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K25" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-    </row>
-    <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="A1:G10"/>
-    <mergeCell ref="A11:D11"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F15:K15"/>
     <mergeCell ref="F11:K11"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B0EDA-C527-4958-A1DF-A6D9050333B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C79A39-217F-4E83-BCCB-83B233943040}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -250,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -322,50 +321,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,21 +687,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="21.95" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -740,14 +717,14 @@
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
@@ -871,14 +848,14 @@
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="14"/>
@@ -932,24 +909,24 @@
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="2"/>
       <c r="F16" s="8" t="s">
@@ -972,9 +949,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
@@ -985,9 +962,9 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
@@ -998,9 +975,9 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="2"/>
       <c r="F19" s="19"/>
@@ -1011,25 +988,25 @@
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="2"/>
       <c r="F21" s="8" t="s">
         <v>1</v>
@@ -1051,10 +1028,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
       <c r="G22" s="11"/>
@@ -1064,10 +1041,10 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="2"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -1077,25 +1054,25 @@
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="2"/>
       <c r="F25" s="8" t="s">
         <v>1</v>
@@ -1117,10 +1094,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="2"/>
       <c r="F26" s="4"/>
       <c r="G26" s="11"/>
@@ -1130,10 +1107,10 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="2"/>
       <c r="F27" s="4"/>
       <c r="G27" s="11"/>
@@ -1146,7 +1123,7 @@
     <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F24:K24"/>
@@ -1154,6 +1131,7 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A15:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C79A39-217F-4E83-BCCB-83B233943040}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F5DC02-9A28-4D66-AD8F-89199DA9EFB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Cash</t>
   </si>
@@ -67,13 +67,80 @@
   </si>
   <si>
     <t>LEDGER</t>
+  </si>
+  <si>
+    <r>
+      <t>Interactive Exercise 6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF4F81BD"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>– Journalizing and posting transactions</t>
+    </r>
+  </si>
+  <si>
+    <t>On 6/1, an individual invested $5,000 in the a corporation.</t>
+  </si>
+  <si>
+    <t>On 6/2, the company paid rent of $1,300 for the month for its office space.</t>
+  </si>
+  <si>
+    <t>On 6/3, a customer paid $2,400 cash for services the company provided.</t>
+  </si>
+  <si>
+    <t>On 6/4, the company paid $800 for employee wages.</t>
+  </si>
+  <si>
+    <t>On 6/5, a customer paid $1,500 cash for services the company provided.</t>
+  </si>
+  <si>
+    <t>On 6/6, the company paid $900 for employee wages.</t>
+  </si>
+  <si>
+    <r>
+      <t>Instructions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Record the following transactions in the journal.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,35 +149,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF4F81BD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Open Sans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -249,101 +356,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,13 +783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
@@ -686,452 +802,535 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="21" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="26" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="8" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K12" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="23" t="s">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K21" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="8" t="s">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
+    </row>
+    <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K34" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:K1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F29:K29"/>
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F15:K15"/>
     <mergeCell ref="F11:K11"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A15:D27"/>
+    <mergeCell ref="A24:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.4_IE_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F5DC02-9A28-4D66-AD8F-89199DA9EFB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D499DDB8-6723-412C-9FF8-C4E610B8C2FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>Cash</t>
   </si>
@@ -68,120 +68,18 @@
   <si>
     <t>LEDGER</t>
   </si>
-  <si>
-    <r>
-      <t>Interactive Exercise 6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF4F81BD"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>– Journalizing and posting transactions</t>
-    </r>
-  </si>
-  <si>
-    <t>On 6/1, an individual invested $5,000 in the a corporation.</t>
-  </si>
-  <si>
-    <t>On 6/2, the company paid rent of $1,300 for the month for its office space.</t>
-  </si>
-  <si>
-    <t>On 6/3, a customer paid $2,400 cash for services the company provided.</t>
-  </si>
-  <si>
-    <t>On 6/4, the company paid $800 for employee wages.</t>
-  </si>
-  <si>
-    <t>On 6/5, a customer paid $1,500 cash for services the company provided.</t>
-  </si>
-  <si>
-    <t>On 6/6, the company paid $900 for employee wages.</t>
-  </si>
-  <si>
-    <r>
-      <t>Instructions</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. Record the following transactions in the journal.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF4F81BD"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -356,75 +254,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -432,7 +318,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -440,26 +326,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,535 +691,452 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+    <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="F1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="G12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="I12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12" t="s">
+      <c r="J12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="23"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="12" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="16">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="F29:K29"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:K1"/>
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F15:K15"/>
     <mergeCell ref="F11:K11"/>
-    <mergeCell ref="A24:D36"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A15:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
